--- a/learn.xlsx
+++ b/learn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanjingzhi/Desktop/learnEnglish/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhanjingzhi-wb\Desktop\learn\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C23CF3E-EFEC-C440-9C52-236F880FB3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E7AD7-2148-4E37-A8B1-3F8D7670808D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2200" windowWidth="28240" windowHeight="17440" xr2:uid="{6A275A57-AD16-C140-8A77-A8A9054DE671}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A275A57-AD16-C140-8A77-A8A9054DE671}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,806 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="152">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>单词</t>
+  </si>
+  <si>
+    <t>音标</t>
+  </si>
+  <si>
+    <t>词性</t>
+  </si>
+  <si>
+    <t>释义</t>
+  </si>
+  <si>
+    <t>短语</t>
+  </si>
+  <si>
+    <t>例句</t>
+  </si>
+  <si>
+    <t>semaphore</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˈseməfɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r]</t>
+    </r>
+  </si>
+  <si>
+    <t>n,v</t>
+  </si>
+  <si>
+    <t>信号量</t>
+  </si>
+  <si>
+    <t>打旗语</t>
+  </si>
+  <si>
+    <t>embrace</t>
+  </si>
+  <si>
+    <t>[ɪmˈbreɪs]</t>
+  </si>
+  <si>
+    <t>拥抱</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <r>
+      <t> [ɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lˈtɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rnətɪv]</t>
+    </r>
+  </si>
+  <si>
+    <t>n,adj</t>
+  </si>
+  <si>
+    <t>可供替代的事物</t>
+  </si>
+  <si>
+    <t>可替代的</t>
+  </si>
+  <si>
+    <t>另类的</t>
+  </si>
+  <si>
+    <t>with support for Groovy and Kotlin as alternative languages on the JVM</t>
+  </si>
+  <si>
+    <t>flexibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌfleksə'bɪləti]</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>灵活的</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɑrkəˌtɛktʃərz]</t>
+  </si>
+  <si>
+    <t>体系结构</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌrekəˈmendɪd]</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>推荐</t>
+  </si>
+  <si>
+    <t>but it is generally recommended to use a recent patch release.</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>[ˈrefrəns]</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>查阅</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t> [sɪˈnɛrioʊ]</t>
+  </si>
+  <si>
+    <t>场景,设想</t>
+  </si>
+  <si>
+    <t>脚本</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the worst-case scenario more than ten thousand people might be affected.</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t> [ˌʌpˈɡreɪd , ˈʌpɡreɪd]</t>
+  </si>
+  <si>
+    <t>(系统)升级</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>[ˈsaɪkl]</t>
+  </si>
+  <si>
+    <t>自行车</t>
+  </si>
+  <si>
+    <t>循环</t>
+  </si>
+  <si>
+    <t>骑自行车</t>
+  </si>
+  <si>
+    <t>diverce</t>
+  </si>
+  <si>
+    <r>
+      <t>[daɪˈvɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rs]</t>
+    </r>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>不同的</t>
+  </si>
+  <si>
+    <t>划分的</t>
+  </si>
+  <si>
+    <t>divided into(被划分为)</t>
+  </si>
+  <si>
+    <t>It has a large and active community that provides continuous feedback based on a diverse range of real-world use cases</t>
+  </si>
+  <si>
+    <t>evolve</t>
+  </si>
+  <si>
+    <r>
+      <t>[iˈvɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lv]</t>
+    </r>
+  </si>
+  <si>
+    <t>进化</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>[faʊnˈdeɪʃn]</t>
+  </si>
+  <si>
+    <t>基金会</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>lite</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [laɪt]</t>
+  </si>
+  <si>
+    <t>精简的</t>
+  </si>
+  <si>
+    <t>清淡的</t>
+  </si>
+  <si>
+    <t>reusable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˌri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zəbl]</t>
+    </r>
+  </si>
+  <si>
+    <t>可重复使用的</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈfɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rwərd]</t>
+    </r>
+  </si>
+  <si>
+    <t>重定向</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>[ˈneɪtɪv]</t>
+  </si>
+  <si>
+    <t>adj,n</t>
+  </si>
+  <si>
+    <t>本地的</t>
+  </si>
+  <si>
+    <t>原生的</t>
+  </si>
+  <si>
+    <t>土著的</t>
+  </si>
+  <si>
+    <t>rely</t>
+  </si>
+  <si>
+    <r>
+      <t> [rɪˈlaɪɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>依赖</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>[skroʊl]</t>
+  </si>
+  <si>
+    <t>纸卷</t>
+  </si>
+  <si>
+    <t>滚动</t>
+  </si>
+  <si>
+    <t>卷起来</t>
+  </si>
+  <si>
+    <t>compatable</t>
+  </si>
+  <si>
+    <t> [kəmˈpætəbl]</t>
+  </si>
+  <si>
+    <t>兼容的,可压缩的</t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>[dɪˈraɪv]</t>
+  </si>
+  <si>
+    <t>获得</t>
+  </si>
+  <si>
+    <t>(使)产生</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <r>
+      <t> [ˈju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sɪdʒ]</t>
+    </r>
+  </si>
+  <si>
+    <t>用法</t>
+  </si>
+  <si>
+    <t>mutable</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈmju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>təbl]</t>
+    </r>
+  </si>
+  <si>
+    <t>可变的</t>
+  </si>
+  <si>
+    <t>imperative</t>
+  </si>
+  <si>
+    <t> [ɪmˈperətɪv]</t>
+  </si>
+  <si>
+    <t>重要迫切紧急的事</t>
+  </si>
+  <si>
+    <t>迫切处理的</t>
+  </si>
+  <si>
+    <t>重要的</t>
+  </si>
+  <si>
+    <t>subsequently</t>
+  </si>
+  <si>
+    <t> [ˈsʌbsɪkwəntli]</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>随后</t>
+  </si>
+  <si>
+    <t>interim</t>
+  </si>
+  <si>
+    <t>[ˈɪntərɪm]</t>
+  </si>
+  <si>
+    <t>暂时的</t>
+  </si>
+  <si>
+    <t>间歇</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <r>
+      <t> [əˈpri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ʃieɪtɪ]</t>
+    </r>
+  </si>
+  <si>
+    <t>感恩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">differ from </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdɪfər frəm]</t>
+  </si>
+  <si>
+    <t>不同于</t>
+  </si>
+  <si>
+    <t>counterparts</t>
+  </si>
+  <si>
+    <t>[ˈkaʊntərˌpɑrts]</t>
+  </si>
+  <si>
+    <t>职位(或作用)相当的人</t>
+  </si>
+  <si>
+    <t>相对应的人</t>
+  </si>
+  <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>[əˈsoʊsieɪt , əˈsoʊsiət]</t>
+  </si>
+  <si>
+    <t>n,v,adj</t>
+  </si>
+  <si>
+    <t>n同事,伙伴,合伙人</t>
+  </si>
+  <si>
+    <t>v联系,混在一起,表示支持同意</t>
+  </si>
+  <si>
+    <t>adj有关联的,副的,非正式的</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <r>
+      <t>[rɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>生的</t>
+  </si>
+  <si>
+    <t>原始的</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>[ˈkæptʃər]</t>
+  </si>
+  <si>
+    <t>v,n</t>
+  </si>
+  <si>
+    <t>俘获</t>
+  </si>
+  <si>
+    <t>捕获</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>[fɪkst]</t>
+  </si>
+  <si>
+    <t>固定的</t>
+  </si>
+  <si>
+    <t>evict</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪˈvɪkt]</t>
+  </si>
+  <si>
+    <t>驱逐</t>
+  </si>
+  <si>
+    <t>放逐</t>
+  </si>
+  <si>
+    <t>retrieve</t>
+  </si>
+  <si>
+    <r>
+      <t>[rɪˈtri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v]</t>
+    </r>
+  </si>
+  <si>
+    <t>检索</t>
+  </si>
+  <si>
+    <t>取回</t>
+  </si>
+  <si>
+    <t>Computers can instantly retrieve millions of information bits</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48,6 +835,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -57,7 +852,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -65,14 +860,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -389,13 +1422,749 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981E218A-A30E-FA42-8AE7-1C7BA73C3E8A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="7"/>
+    <col min="2" max="2" width="11" style="12"/>
+    <col min="3" max="4" width="11" style="16"/>
+    <col min="5" max="5" width="11" style="5"/>
+    <col min="6" max="7" width="11" style="1"/>
+    <col min="8" max="8" width="11" style="7"/>
+    <col min="9" max="9" width="11" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>44312</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>44315</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>44315</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>44324</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>44326</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>44328</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/learn.xlsx
+++ b/learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhanjingzhi-wb\Desktop\learn\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E7AD7-2148-4E37-A8B1-3F8D7670808D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3B93FE-584C-42DB-92FF-14E9056A15D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6A275A57-AD16-C140-8A77-A8A9054DE671}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="308">
   <si>
     <t>日期</t>
   </si>
@@ -814,12 +814,670 @@
   <si>
     <t>Computers can instantly retrieve millions of information bits</t>
   </si>
+  <si>
+    <t>adapt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [əˈdæpt]</t>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使适应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underlying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˌʌndərˈlaɪɪŋ]</t>
+  </si>
+  <si>
+    <t>adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底层的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory hook that allows for custom modification of an application context's bean definitions, adapting the bean property values of the context's underlying bean factory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈkɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ːŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t]</t>
+    </r>
+  </si>
+  <si>
+    <t>concrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n,v,adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混泥土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用混泥土覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混泥土的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Useful for custom config files targeted at system administrators that override bean properties configured in the application context. See {@link PropertyResourceConfigurer} and its concrete implementations for out-of-the-box solutions that address such configuration needs.</t>
+  </si>
+  <si>
+    <t>premature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˌpriːməˈtʃʊr]</t>
+  </si>
+  <si>
+    <t>过早的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成熟的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ɪnˌstænʃiˈeɪʃən]</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unintended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˌʌnɪnˈtendɪd]</t>
+  </si>
+  <si>
+    <t>未在计划中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side-effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[saɪd ɪˈfekts]</t>
+  </si>
+  <si>
+    <t>副作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A {@code BeanFactoryPostProcessor} may interact with and modify bean definitions, but never bean instances. Doing so may cause premature bean instantiation, violating the container and causing unintended side-effects.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˌɪntərˈækt]</t>
+  </si>
+  <si>
+    <t>合作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互相影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流,交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> If bean instance interaction is required, consider implementing {@link BeanPostProcessor} instead.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [dɪˈtekt]</t>
+  </si>
+  <si>
+    <t>发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programmatically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编程的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;An {@code ApplicationContext} auto-detects {@code BeanFactoryPostProcessor} beans in its bean definitions and applies them before any other beans get created. A {@code BeanFactoryPostProcessor} may also be registered programmatically with a {@code ConfigurableApplicationContext}.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furthermore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌfɜːrðərˈmɔːr]</t>
+  </si>
+  <si>
+    <t>更进一步地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take into account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>internal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ɪnˈtɜːrnl]</t>
+  </si>
+  <si>
+    <t>内部的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈiːɡər]</t>
+  </si>
+  <si>
+    <t>热切的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预先的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eager-initializing(预先初始化)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in addition to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除此以外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correspond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˌkɔːrəˈspɑːnd]</t>
+  </si>
+  <si>
+    <t>相一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ɪnˈtend]</t>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[səˈpoʊz]</t>
+  </si>
+  <si>
+    <t>推断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as long as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as well</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也,还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˈkændɪdət]</t>
+  </si>
+  <si>
+    <t>候选者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualifies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˈkwɑːlɪfaɪz]</t>
+  </si>
+  <si>
+    <t>有资格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualifies as(有资格成为)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancestor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[pleɪn]</t>
+  </si>
+  <si>
+    <t>n,adj,adv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(强调语气)简直了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原,普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单直接的,普通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>populate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˈpɑːpjuleɪt]</t>
+  </si>
+  <si>
+    <t>殖民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈkɑːntræst , kənˈtræst]</t>
+  </si>
+  <si>
+    <t>对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in contrast(相反)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈmɪrli]</t>
+  </si>
+  <si>
+    <t>仅仅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˈpɜːrpəs]</t>
+  </si>
+  <si>
+    <t>n,v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppressing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [səˈpresɪŋ]</t>
+  </si>
+  <si>
+    <t>抑制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>represent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˌreprɪˈzent]</t>
+  </si>
+  <si>
+    <t>代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protentially</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[pə'tenʃəli]</t>
+  </si>
+  <si>
+    <t>潜在地,可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brittle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈbrɪtl]</t>
+  </si>
+  <si>
+    <t>脆弱的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ɪkˈstɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rnl]</t>
+    </r>
+  </si>
+  <si>
+    <t>外部的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collaborate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[kəˈlæbəreɪt]</t>
+  </si>
+  <si>
+    <t>react once all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一劳永逸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˈmændətɔːri]</t>
+  </si>
+  <si>
+    <t>规定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [ˌɪndɪˈvɪdʒuəl]</t>
+  </si>
+  <si>
+    <t>n,adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dɪˈstrʌkʃn]</t>
+  </si>
+  <si>
+    <t>销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explicit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ɪkˈsplɪsɪt]</t>
+  </si>
+  <si>
+    <t>明确的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˌɪntɪˈɡreɪʃn]</t>
+  </si>
+  <si>
+    <t>集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> [slaɪs]</t>
+  </si>
+  <si>
+    <t>切片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[kənˈkluːʒn]</t>
+  </si>
+  <si>
+    <t>结论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -842,6 +1500,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1035,7 +1699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,6 +1770,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981E218A-A30E-FA42-8AE7-1C7BA73C3E8A}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2750,7 @@
       <c r="H32" s="23"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="12" t="s">
         <v>135</v>
@@ -2100,7 +2770,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="13" t="s">
         <v>140</v>
@@ -2117,7 +2787,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>44328</v>
       </c>
@@ -2139,7 +2809,7 @@
       <c r="H35" s="23"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="13" t="s">
         <v>147</v>
@@ -2160,6 +2830,659 @@
       <c r="I36" s="13"/>
       <c r="J36" s="2" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>44329</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
